--- a/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
+++ b/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
@@ -83,9 +83,6 @@
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
-    <t>1A4c_Fishing</t>
-  </si>
-  <si>
     <t>1A5_Other-unspecified</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Taxi</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
   </si>
 </sst>
 </file>
@@ -429,9 +429,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="172">
+  <cellStyleXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -615,7 +617,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="172">
+  <cellStyles count="174">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -701,6 +703,7 @@
     <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -786,6 +789,7 @@
     <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1068,9 +1072,9 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A104" sqref="A104"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1084,46 +1088,46 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1132,293 +1136,293 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1427,12 +1431,12 @@
         <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -1441,320 +1445,320 @@
         <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1780,30 +1784,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1828,36 +1832,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
+++ b/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="0" windowWidth="15740" windowHeight="13960"/>
@@ -302,9 +302,6 @@
     <t>post_ext_year</t>
   </si>
   <si>
-    <t>1A1a_Electricity-generation</t>
-  </si>
-  <si>
     <t>1A2_Ind-Combustion</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>Electricity-and-Heat</t>
   </si>
 </sst>
 </file>
@@ -429,9 +429,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -617,7 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -704,6 +710,9 @@
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -790,6 +799,9 @@
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1061,7 +1073,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,9 +1084,9 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A104" sqref="A104"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1102,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1130,7 +1142,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1155,7 +1167,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1166,7 +1178,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1177,7 +1189,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1188,7 +1200,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1199,7 +1211,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1210,7 +1222,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1221,7 +1233,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1243,7 +1255,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1257,7 +1269,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1271,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1285,7 +1297,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1366,7 +1378,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1481,7 +1493,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1495,7 +1507,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -1509,7 +1521,7 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1539,7 +1551,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1592,10 +1604,10 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1658,10 +1670,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1726,7 +1738,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1753,7 +1765,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="C67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">

--- a/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
+++ b/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
   <si>
     <t>1A1a_Electricity-public</t>
   </si>
@@ -429,9 +429,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -623,7 +625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="182">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -713,6 +715,7 @@
     <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -802,6 +805,7 @@
     <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1073,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,9 +1088,9 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A104" sqref="A104"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1310,9 +1314,6 @@
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
@@ -1341,9 +1342,6 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1355,9 +1353,6 @@
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1369,9 +1364,6 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>70</v>
       </c>
@@ -1383,9 +1375,6 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
@@ -1397,9 +1386,6 @@
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1411,9 +1397,6 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1425,9 +1408,6 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>73</v>
       </c>
@@ -1450,9 +1430,6 @@
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -1509,9 +1486,6 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>80</v>
       </c>
@@ -1587,9 +1561,6 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
@@ -1661,9 +1632,6 @@
       <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
@@ -1703,9 +1671,6 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" t="s">
         <v>37</v>
       </c>
     </row>

--- a/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
+++ b/input/mappings/scaling/S_Korea_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="0" windowWidth="15740" windowHeight="13960"/>
+    <workbookView xWindow="6540" yWindow="0" windowWidth="27260" windowHeight="17000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>1A3c_Rail</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Electricity-and-Heat</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,10 +1087,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A104" sqref="A104"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1104,317 +1104,317 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1423,319 +1423,319 @@
         <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="C67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1761,30 +1761,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -1809,36 +1809,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
